--- a/backend/database/PostgreSQL-authentication.xlsx
+++ b/backend/database/PostgreSQL-authentication.xlsx
@@ -4,25 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
-    <sheet name="register" sheetId="2" r:id="rId2"/>
-    <sheet name="authenticate" sheetId="3" r:id="rId3"/>
+    <sheet name="function-register" sheetId="2" r:id="rId2"/>
+    <sheet name="function-authenticate" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
-  <si>
-    <t>begin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>GRANT SELECT ON ALL TABLES IN SCHEMA public TO unauth;</t>
   </si>
@@ -35,66 +29,6 @@
   <si>
     <t>-- CREATE ROLE auth;</t>
   </si>
-  <si>
-    <t>CREATE OR REPLACE FUNCTION</t>
-  </si>
-  <si>
-    <t>register_user</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>DECLARE</t>
-  </si>
-  <si>
-    <t>new_user</t>
-  </si>
-  <si>
-    <t>insert into</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>returning * into</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
 </sst>
 </file>
 
@@ -109,18 +43,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,10 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,43 +81,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="create-persons"/>
-      <sheetName val="create-accounts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>persons</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>name</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>surname</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>private.accounts</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,22 +383,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -519,223 +409,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>'[1]create-persons'!$B$1</f>
-        <v>persons</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>CONCATENATE("(",'[1]create-persons'!$A$4,", ",'[1]create-persons'!$A$5)</f>
-        <v>(name, surname</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>CONCATENATE("(",A2,", ",A3,")")</f>
-        <v>(name1, name2)</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>A11</f>
-        <v>new_user</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>'[1]create-accounts'!$B$1</f>
-        <v>private.accounts</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -744,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
